--- a/brise_plandok/data_split/input/annotation_phase2_template.xlsx
+++ b/brise_plandok/data_split/input/annotation_phase2_template.xlsx
@@ -26,7 +26,7 @@
     <definedName function="false" hidden="false" name="Nutzung_Widmung" vbProcedure="false">Label!$M$4:$M$10</definedName>
     <definedName function="false" hidden="false" name="Stellplaetze_Garagen_Parkgebäude" vbProcedure="false">Label!$I$4:$I$15</definedName>
     <definedName function="false" hidden="false" name="Strassen_und_Gehsteige" vbProcedure="false">Label!$R$4:$R$8</definedName>
-    <definedName function="false" hidden="false" name="Type" vbProcedure="false">Label!$U$4:$U$5</definedName>
+    <definedName function="false" hidden="false" name="Type" vbProcedure="false">Label!$U$4:$U$7</definedName>
     <definedName function="false" hidden="false" name="Volumen" vbProcedure="false">Label!$F$4:$F$4</definedName>
     <definedName function="false" hidden="false" name="Vorbauten" vbProcedure="false">Label!$K$4:$K$6</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="127">
   <si>
     <t xml:space="preserve">Sentence_ID</t>
   </si>
@@ -231,6 +231,9 @@
     <t xml:space="preserve">GelaendeneigungMin</t>
   </si>
   <si>
+    <t xml:space="preserve">contentException</t>
+  </si>
+  <si>
     <t xml:space="preserve">prohibition</t>
   </si>
   <si>
@@ -262,6 +265,9 @@
   </si>
   <si>
     <t xml:space="preserve">InSchutzzone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditionException</t>
   </si>
   <si>
     <t xml:space="preserve">GebaeudeHoeheArt</t>
@@ -497,14 +503,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE0C2CD"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEE6EF"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FFE0C2CD"/>
+        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -518,7 +524,7 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
-      <right style="hair"/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -583,11 +589,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -619,23 +625,35 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Lila" xfId="20"/>
-    <cellStyle name="Blue" xfId="21"/>
+    <cellStyle name="Blue" xfId="20"/>
+    <cellStyle name="Lila" xfId="21"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
       <font>
         <name val="Calibri"/>
         <charset val="238"/>
         <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF996600"/>
-        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFE0C2CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="238"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEE6EF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -662,12 +680,12 @@
         <family val="2"/>
         <b val="0"/>
         <i val="0"/>
-        <color rgb="FFCC0000"/>
+        <color rgb="FF996600"/>
         <sz val="10"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -676,42 +694,14 @@
         <name val="Calibri"/>
         <charset val="238"/>
         <family val="2"/>
-        <b val="1"/>
+        <b val="0"/>
         <i val="0"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFCC0000"/>
         <sz val="10"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="238"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0C2CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="238"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEE6EF"/>
+          <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -784,22 +774,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1"/>
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BR5" activeCellId="0" sqref="BR5"/>
+      <selection pane="bottomRight" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="64.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="84.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="36.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="35.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="36.11"/>
@@ -863,190 +853,190 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="AA1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="AE1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="AI1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="AM1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="AQ1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="AU1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="AY1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BB1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="BC1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BD1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BE1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BF1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="BG1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BH1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BI1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="BK1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BL1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BM1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BN1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="BO1" s="7" t="s">
@@ -1056,27 +1046,32 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
+    <row r="2" customFormat="false" ht="64.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="64.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576 K1:K1048576 O1:O1048576 S1:S1048576 W1:W1048576 AA1:AA1048576 AE1:AE1048576 AI1:AI1048576 AM1:AM1048576 AQ1:AQ1048576 AU1:AU1048576 AY1:AY1048576 BC1:BC1048576 BG1:BG1048576 BK1:BK1048576 BO1:BO1048576">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"content"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"condition"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"contentException"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"conditionException"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"permission"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"obligation"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"permission"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"prohibition"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576 K1:K1048576 O1:O1048576 S1:S1048576 W1:W1048576 AA1:AA1048576 AE1:AE1048576 AI1:AI1048576 AM1:AM1048576 AQ1:AQ1048576 AU1:AU1048576 AY1:AY1048576 BC1:BC1048576 BG1:BG1048576 BK1:BK1048576 BO1:BO1048576">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>"content"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"condition"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1096,11 +1091,11 @@
   </sheetPr>
   <dimension ref="B1:Z24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X7" activeCellId="0" sqref="X7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.55"/>
@@ -1120,7 +1115,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="47.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="40.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="42.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="16.39"/>
   </cols>
@@ -1330,8 +1325,11 @@
       <c r="S6" s="0" t="s">
         <v>62</v>
       </c>
+      <c r="U6" s="0" t="s">
+        <v>63</v>
+      </c>
       <c r="X6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,34 +1337,37 @@
         <v>12</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,34 +1375,34 @@
         <v>20</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,28 +1410,28 @@
         <v>18</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,25 +1439,25 @@
         <v>16</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,22 +1465,22 @@
         <v>13</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1487,13 +1488,13 @@
         <v>19</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,13 +1502,13 @@
         <v>10</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,67 +1516,67 @@
         <v>15</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9"/>
       <c r="P16" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P17" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P18" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P19" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P20" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P21" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P22" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P23" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P24" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
